--- a/queries/Result_Groupe_by_date_1.xlsx
+++ b/queries/Result_Groupe_by_date_1.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -79,12 +76,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -452,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,8 +477,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>44562</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -497,7 +493,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>150</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +505,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>230</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +521,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>366</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
@@ -537,12 +533,14 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>446</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>44563</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>08/01/2022</t>
+        </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
@@ -555,7 +553,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>114</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -567,7 +565,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>154</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -583,7 +581,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>300</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -595,12 +593,14 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>340</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>44566</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>10/01/2022</t>
+        </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
@@ -653,12 +653,14 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>44568</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>11/01/2022</t>
+        </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
@@ -671,7 +673,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>48</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -683,7 +685,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>68</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16">
@@ -699,7 +701,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>123</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17">
@@ -711,12 +713,14 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>143</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>44571</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>15/01/2022</t>
+        </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
@@ -729,7 +733,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -741,7 +745,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>108</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
@@ -757,7 +761,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>162</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21">
@@ -769,12 +773,14 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>202</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>44573</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>17/01/2022</t>
+        </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
@@ -787,7 +793,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>38</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -799,7 +805,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>58</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24">
@@ -815,7 +821,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>93</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25">
@@ -827,12 +833,14 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>113</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>44576</v>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>18/01/2022</t>
+        </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
@@ -845,7 +853,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>94</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
@@ -857,7 +865,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>154</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
@@ -873,7 +881,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>219</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29">
@@ -885,12 +893,14 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>279</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>44578</v>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>22/01/2022</t>
+        </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
@@ -903,7 +913,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
@@ -915,7 +925,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>150</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32">
@@ -931,7 +941,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>288</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33">
@@ -943,12 +953,14 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>328</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>44579</v>
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>23/01/2022</t>
+        </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
@@ -961,7 +973,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>106</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
@@ -973,7 +985,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>146</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36">
@@ -989,7 +1001,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>276</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37">
@@ -1001,12 +1013,14 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>316</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>44586</v>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>24/01/2022</t>
+        </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
@@ -1019,7 +1033,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39">
@@ -1031,7 +1045,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
@@ -1047,7 +1061,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>81</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -1059,12 +1073,14 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>101</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>44591</v>
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>25/01/2022</t>
+        </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
@@ -1077,7 +1093,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43">
@@ -1089,7 +1105,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
@@ -1105,7 +1121,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>75</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45">
@@ -1117,20 +1133,205 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>95</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>26/01/2022</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>Qliq</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>data1</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>data2</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>Qoil</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>data1</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>data2</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>27/01/2022</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>Qliq</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>data1</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>data2</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>Qoil</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>data1</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>data2</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>30/01/2022</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>Qliq</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>data1</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>data2</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>Qoil</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>data1</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>data2</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="42">
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B52:B53"/>
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A54:A57"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A50:A53"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B28:B29"/>
@@ -1138,6 +1339,7 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A46:A49"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="A2:A5"/>
@@ -1145,6 +1347,7 @@
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B54:B55"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B30:B31"/>
@@ -1153,7 +1356,9 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B56:B57"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="B26:B27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
